--- a/ArduinoFirmware/FirmwareModelImplementation/RecursiveMovingAverageValidation.xlsx
+++ b/ArduinoFirmware/FirmwareModelImplementation/RecursiveMovingAverageValidation.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="103" windowWidth="14803" windowHeight="8014"/>
+    <workbookView xWindow="240" yWindow="103" windowWidth="14803" windowHeight="8014" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Accels" sheetId="1" r:id="rId1"/>
+    <sheet name="BuffMean" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -44,8 +45,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,7 +134,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$18:$A$45</c:f>
+              <c:f>Accels!$A$18:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -215,7 +218,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$18:$B$45</c:f>
+              <c:f>Accels!$B$18:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -316,7 +319,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$18:$A$45</c:f>
+              <c:f>Accels!$A$18:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -400,7 +403,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$18:$C$45</c:f>
+              <c:f>Accels!$C$18:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -501,7 +504,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$18:$A$45</c:f>
+              <c:f>Accels!$A$18:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -585,7 +588,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$18:$D$45</c:f>
+              <c:f>Accels!$D$18:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -686,11 +689,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="453826648"/>
-        <c:axId val="453826256"/>
+        <c:axId val="262916960"/>
+        <c:axId val="262915784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="453826648"/>
+        <c:axId val="262916960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,12 +750,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453826256"/>
+        <c:crossAx val="262915784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453826256"/>
+        <c:axId val="262915784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -809,7 +812,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453826648"/>
+        <c:crossAx val="262916960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -890,7 +893,2797 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>BuffMean!$B$34:$B$326</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="293"/>
+                <c:pt idx="0">
+                  <c:v>4182.2700000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4182.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4182.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4182.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4182.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4181.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4181.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4181.13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4181.2700000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4181.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4181.33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4180.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4180.53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4179.93</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4179.93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4179.87</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4179.93</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4180.13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4180.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4180.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4180.66</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4181.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4181.53</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4181.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4181.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4181.93</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4182.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4182.66</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4183</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4183.13</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4183.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4182.66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4183.46</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4183.33</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4183.46</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4183.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4183.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4182.46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4182.53</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4182.26</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4181.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4181.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4181.13</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4181</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4181.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4180.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4181</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4180.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4180.2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4180.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4179.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4179.26</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4179.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4179.93</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4179.53</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4180.13</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4180.46</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4180.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4180.53</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4180.46</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4180.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4180.93</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4181.46</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4181.13</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4180.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4181.53</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4181.3900000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4181.46</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4181.13</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4181.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4181.26</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4180.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4180.3900000000003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4180.53</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4180.33</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4179.93</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4179.79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4179.46</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4179.53</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4180.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4179.46</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4179.53</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4179.53</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4180.13</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4180.79</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4180.46</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4180.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4181.13</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4180.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4180.59</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4181.13</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4181.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4182.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4182.3900000000003</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4182.53</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4181.93</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4181.99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4181.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4181.13</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4180.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4180.93</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4181.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4180.93</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4181.13</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4181.33</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4180.93</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4180.66</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4180.33</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4179.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4179.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4181.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4181.66</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4181.26</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4181.99</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4182.1899999999996</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4182.26</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4182.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4181.79</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4181.59</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4181.53</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4182.26</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4182.46</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4182.33</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4182.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4182.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4181.93</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4181.33</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4181.13</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4180.66</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4180.46</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4179.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>4179.53</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4179.99</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4180.13</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4179.99</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4179.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4179.26</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4179.13</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4179.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4178.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4179.13</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4179.13</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4179.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4179.93</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4179.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4180.3900000000003</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4180.59</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4180.53</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4180.1899999999996</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4180.66</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4180.33</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4180.13</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>4180.46</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4179.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4180.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4180.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4180.3900000000003</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4179.93</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4179.93</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4179.93</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4179.59</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>4179.5200000000004</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>4179.59</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>4179.72</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>4179.79</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4179.46</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4180.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4179.92</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4180.79</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4180.66</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4180.46</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4180.26</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4180.66</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>4180.26</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>4180.59</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>4181.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>4180.72</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4180.79</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>4181.32</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>4181.26</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>4181.5200000000004</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4181.32</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4181.46</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4181.46</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4181.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>4180.99</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4181.1899999999996</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4180.92</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4181.66</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4181.5200000000004</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>4181.3900000000003</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>4181.99</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>4181.72</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4181.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4180.46</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4180.5200000000004</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4180.12</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4180.32</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4180.59</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4180.72</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4180.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4180.46</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4180.1899999999996</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4179.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4179.99</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4180.12</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4179.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4180.26</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4180.32</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4180.99</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4180.92</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4181.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4180.46</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4179.99</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4179.92</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>4179.99</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>4179.99</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>4180.1899999999996</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>4180.3900000000003</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>4180.12</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>4179.72</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>4179.32</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>4178.72</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>4178.72</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4178.5200000000004</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4178.66</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4178.5200000000004</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4178.59</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>4178.66</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>4178.72</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>4178.72</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>4178.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>4178.92</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>4178.99</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>4178.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>4179.1899999999996</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4179.72</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>4179.66</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>4179.92</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>4179.72</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>4179.66</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>4179.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>4179.92</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>4179.79</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>4179.5200000000004</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4179.79</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>4179.66</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>4179.59</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>4179.46</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>4179.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>4179.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>4179.1899999999996</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>4179.66</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>4179.79</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>4179.92</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>4180.26</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>4180.66</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>4180.92</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>4181.79</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>4181.92</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>4181.59</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>4181.79</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>4181.99</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>4181.99</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>4181.3900000000003</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>4182.32</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>4183.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>4182.99</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>4182.6499999999996</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>4182.25</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>4182.1899999999996</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>4181.8500000000004</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>4181.99</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>4181.12</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>4181.32</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>4181.6499999999996</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>4181.59</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>4181.45</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>4180.99</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>4181.25</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>4180.79</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>4180.12</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>4179.59</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>4179.6499999999996</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>4180.25</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>4180.3900000000003</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>4180.3900000000003</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>4180.45</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>4180.3900000000003</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>4179.92</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>4179.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>BuffMean!$C$34:$C$326</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="293"/>
+                <c:pt idx="0">
+                  <c:v>3370.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3474.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3570.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3657.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3736.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3805.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3866.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3919.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3962.77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3997.67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4023.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4041.34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4050.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4050.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4050.16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4050.18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4050.21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4050.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4050.28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4050.32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4050.36</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4050.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4050.43</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4050.47</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4050.49</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4050.53</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4050.56</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4050.58</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4050.61</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4050.63</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4050.66</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4050.69</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4050.72</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4050.73</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4050.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4050.77</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4050.82</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4050.86</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4050.92</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4050.96</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4051</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4051.03</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4051.05</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4051.06</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4051.08</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4051.11</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4051.15</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4051.18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4051.21</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4051.21</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4051.21</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4051.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4051.18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4051.14</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4051.09</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4051.04</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4050.98</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4050.93</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4050.89</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4050.84</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4050.77</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4050.69</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4050.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4050.54</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4050.51</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4050.43</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4050.35</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4050.29</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4050.23</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4050.18</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4050.14</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4050.09</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4050.06</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4050.03</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4049.98</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4049.96</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4049.92</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4049.9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4049.85</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4049.83</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4049.83</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4049.81</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4049.8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4049.81</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4049.82</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4049.84</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4049.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4049.9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4049.92</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4049.91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4049.92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4049.94</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4049.97</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4050.03</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4050.08</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4050.12</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4050.13</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4050.14</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4050.13</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4050.12</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4050.12</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4050.11</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4050.12</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4050.14</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4050.17</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4050.18</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4050.21</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4050.22</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4050.24</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4050.25</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4050.28</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4050.35</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4050.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4050.48</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4050.54</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4050.59</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4050.64</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4050.67</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4050.68</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4050.71</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4050.76</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4050.8</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4050.82</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4050.84</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4050.85</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4050.83</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4050.81</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4050.78</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4050.74</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4050.72</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4050.7</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>4050.65</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4050.62</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4050.59</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4050.56</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4050.51</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4050.46</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4050.41</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4050.37</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4050.34</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4050.31</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4050.25</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4050.2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4050.16</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4050.09</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4050.03</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4049.98</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4049.93</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4049.88</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4049.85</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4049.82</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4049.75</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>4049.69</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4049.61</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4049.52</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4049.44</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4049.39</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4049.35</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4049.31</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4049.29</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4049.26</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>4049.25</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>4049.25</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>4049.24</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>4049.23</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4049.22</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4049.23</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4049.25</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4049.3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4049.35</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4049.4</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4049.43</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4049.48</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>4049.49</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>4049.52</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>4049.55</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>4049.56</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4049.57</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>4049.59</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>4049.63</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>4049.65</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4049.69</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4049.73</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4049.76</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4049.8</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>4049.83</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4049.86</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4049.88</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4049.93</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4049.98</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>4050.03</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>4050.11</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>4050.17</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4050.22</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4050.24</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4050.27</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4050.29</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4050.3</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4050.32</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4050.31</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4050.32</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4050.32</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4050.32</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4050.29</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4050.29</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4050.27</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4050.23</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4050.22</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4050.2</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4050.19</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4050.18</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4050.17</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4050.14</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4050.1</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4050.05</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>4050.01</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>4049.98</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>4049.95</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>4049.93</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>4049.89</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>4049.83</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>4049.77</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>4049.66</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>4049.57</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4049.49</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4049.44</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4049.37</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4049.32</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>4049.27</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>4049.21</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>4049.15</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>4049.09</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>4049.04</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>4049</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>4048.97</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>4048.95</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4048.94</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>4048.93</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>4048.92</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>4048.9</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>4048.86</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>4048.82</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>4048.79</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>4048.77</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>4048.75</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4048.75</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>4048.74</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>4048.73</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>4048.7</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>4048.69</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>4048.65</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>4048.64</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>4048.65</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>4048.68</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>4048.72</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>4048.77</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>4048.83</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>4048.91</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>4049.01</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>4049.11</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>4049.2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>4049.3</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>4049.39</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>4049.49</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>4049.56</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>4049.67</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>4049.79</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>4049.9</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>4049.99</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>4050.06</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>4050.14</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>4050.21</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>4050.27</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>4050.31</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>4050.36</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>4050.43</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>4050.48</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>4050.54</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>4050.58</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>4050.64</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>4050.67</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>4050.7</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>4050.71</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>4050.71</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>4050.73</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>4050.74</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>4050.75</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>4050.74</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>4050.72</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>4050.66</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>4050.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>BuffMean!$D$34:$D$326</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="293"/>
+                <c:pt idx="0">
+                  <c:v>3396.2022115384621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3515.7093543956048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3625.2736401098905</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3724.890425824176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3814.5643543956044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3894.2714972527469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3964.0072115384614</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4023.7786401098897</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4073.595068681318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4113.4832829670322</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4143.4072115384606</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4163.3857829670324</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4173.3929258241751</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4173.4429258241744</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4173.4664972527453</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4173.4950686813163</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4173.5286401098874</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4173.5643543956021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4173.6072115384595</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4173.650068681316</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4173.7000686813162</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4173.7429258241737</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4173.780782967031</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4173.8211401098879</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4173.8497115384589</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4173.8879258241732</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4173.9211401098873</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4173.9497115384584</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4173.9807829670299</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4174.0089972527439</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4174.037568681315</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4174.0682829670295</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4174.1064972527438</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4174.1157829670292</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4174.1464972527438</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4174.1654258241724</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4174.2175686813152</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4174.2722115384577</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4174.338997252743</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4174.3864972527426</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4174.4314972527427</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4174.4622115384573</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4174.4789972527433</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4174.4979258241719</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4174.5193543956011</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4174.5575686813154</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4174.6029258241724</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4174.6289972527438</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4174.6647115384576</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4174.6693543956007</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4174.6718543956013</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4174.6597115384584</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4174.63328296703</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4174.5832829670298</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4174.5261401098869</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4174.468997252744</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4174.4022115384587</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4174.349711538458</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4174.2972115384582</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4174.2400686813153</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4174.1639972527437</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4174.0732829670296</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4173.9922115384579</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4173.9039972527444</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4173.8611401098879</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4173.7779258241735</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4173.6825686813163</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4173.6136401098875</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4173.5489972527448</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4173.4868543956027</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4173.439354395603</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4173.3868543956023</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4173.3511401098885</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4173.3129258241743</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4173.2839972527463</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4173.2625686813171</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4173.2386401098884</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4173.1932829670313</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4173.1643543956025</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4173.1093543956022</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4173.0904258241735</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4173.0854258241734</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4173.0639972527442</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4173.0522115384583</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4173.0618543956016</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4173.0736401098875</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4173.1043543956021</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4173.1375686813162</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4173.1636401098876</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4173.1875686813164</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4173.1850686813168</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4173.1872115384604</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4173.2111401098891</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4173.2468543956038</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4173.2872115384607</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4173.3204258241749</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4173.3704258241751</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4173.4157829670321</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4173.4322115384603</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4173.4489972527463</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4173.4372115384604</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4173.4229258241749</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4173.4182829670326</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4173.4111401098889</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4173.4182829670317</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4173.4447115384601</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4173.473282967032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>BuffMean!$E$34:$E$326</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="293"/>
+                <c:pt idx="0">
+                  <c:v>3387.4637499999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3500.7512500000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3605.3221874999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3701.1971875000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3788.3681250000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3866.8078125000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3936.5412499999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3997.5493750000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4049.8431250000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4093.4368750000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4128.3431250000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4154.524375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4171.9850000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4180.7368750000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4180.7618750000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4180.7825000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4180.805625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4180.8390624999993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4180.8681249999991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4180.9118749999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4180.9578124999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4181.0078125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4181.0471874999994</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4181.1034374999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4181.1428124999993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4181.1637499999988</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4181.2034374999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4181.2428124999988</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4181.2824999999993</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4181.3178124999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4181.3531249999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4181.3821874999994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4181.4174999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4181.4278125000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4181.4609375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4181.4837500000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4181.5043750000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4181.5418750000008</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4181.5896875000008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4181.625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4181.6687500000007</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4181.6996875000013</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4181.7121875000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4181.7081250000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4181.7224999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4181.7371875000008</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4181.7768750000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4181.7978125</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4181.833125000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4181.8350000000009</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4181.8434375000006</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4181.8412500000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4181.8243749999992</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4181.7825000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4181.7556249999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4181.7096874999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4181.6471874999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4181.6075000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4181.5718749999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4181.5365625000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4181.4781249999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4181.4093750000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4181.3425000000007</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4181.2737500000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4181.2131249999993</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4181.1653125000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4181.0778124999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4181.021562500001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4180.9568749999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4180.9025000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4180.8378125000008</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4180.7940625000019</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4180.7543750000013</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4180.7065625000014</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4180.6625000000004</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4180.6415625000009</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4180.6165625000003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4180.583125000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4180.5390625000009</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4180.5034375000005</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4180.4575000000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4180.4574999999995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4180.4343749999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4180.4178124999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4180.4075000000003</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4180.4346874999992</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4180.4656249999989</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4180.4821874999989</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4180.5237499999994</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4180.5550000000003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4180.5634375000009</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4180.5568750000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4180.5756249999995</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4180.6193750000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4180.6568750000006</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4180.7025000000003</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4180.7359375000005</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4180.7609375000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4180.8024999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4180.8128125000003</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4180.8046875</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4180.7818750000006</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4180.7756250000002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4180.7756250000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4180.7653124999997</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4180.7778124999995</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4180.8071874999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="549828472"/>
+        <c:axId val="549829256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="549828472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549829256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="549829256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549828472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1446,6 +4239,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1464,6 +4773,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>21770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1770,7 +5114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -2372,4 +5716,4611 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F326"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:E140"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>278.39999999999998</v>
+      </c>
+      <c r="C2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>557.13</v>
+      </c>
+      <c r="C3">
+        <v>26.11</v>
+      </c>
+      <c r="D3">
+        <f>C2+B3/32</f>
+        <v>26.110312499999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>836.13</v>
+      </c>
+      <c r="C4">
+        <v>52.24</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D30" si="0">C3+B4/32</f>
+        <v>52.239062500000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1114.5999999999999</v>
+      </c>
+      <c r="C5">
+        <v>87.07</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>87.071249999999992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1393.33</v>
+      </c>
+      <c r="C6">
+        <v>130.61000000000001</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>130.61156249999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1671.93</v>
+      </c>
+      <c r="C7">
+        <v>182.86</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>182.85781250000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1950.2</v>
+      </c>
+      <c r="C8">
+        <v>243.8</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>243.80375000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2229.0700000000002</v>
+      </c>
+      <c r="C9">
+        <v>313.45999999999998</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>313.4584375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2507.73</v>
+      </c>
+      <c r="C10">
+        <v>391.83</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>391.82656249999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2786.27</v>
+      </c>
+      <c r="C11">
+        <v>478.9</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>478.9009375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3064.4</v>
+      </c>
+      <c r="C12">
+        <v>574.66</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>574.66250000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3343.53</v>
+      </c>
+      <c r="C13">
+        <v>679.15</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>679.14531249999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3621.93</v>
+      </c>
+      <c r="C14">
+        <v>792.33</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>792.33531249999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>3900.47</v>
+      </c>
+      <c r="C15">
+        <v>914.22</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>914.21968750000008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>4179.13</v>
+      </c>
+      <c r="C16">
+        <v>1044.82</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1044.8178124999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>4179.2700000000004</v>
+      </c>
+      <c r="C17">
+        <v>1175.42</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1175.4221874999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>4179.13</v>
+      </c>
+      <c r="C18">
+        <v>1306.02</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1306.0178125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>4178.93</v>
+      </c>
+      <c r="C19">
+        <v>1436.61</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1436.6115625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>4179</v>
+      </c>
+      <c r="C20">
+        <v>1567.21</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1567.2037499999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>4178.7299999999996</v>
+      </c>
+      <c r="C21">
+        <v>1697.79</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1697.7953124999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>4178.93</v>
+      </c>
+      <c r="C22">
+        <v>1828.38</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1828.3815625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>4179</v>
+      </c>
+      <c r="C23">
+        <v>1958.98</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1958.9737500000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>4179.3999999999996</v>
+      </c>
+      <c r="C24">
+        <v>2089.58</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>2089.5862499999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>4179.6000000000004</v>
+      </c>
+      <c r="C25">
+        <v>2220.1999999999998</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>2220.1925000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>4180.2700000000004</v>
+      </c>
+      <c r="C26">
+        <v>2350.83</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>2350.8334374999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>4180.7299999999996</v>
+      </c>
+      <c r="C27">
+        <v>2481.48</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>2481.4778124999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>4180.33</v>
+      </c>
+      <c r="C28">
+        <v>2612.11</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>2612.1153125000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>4180.67</v>
+      </c>
+      <c r="C29">
+        <v>2742.76</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>2742.7559375000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>4181.13</v>
+      </c>
+      <c r="C30">
+        <v>2873.42</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>2873.4203125000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>4181.53</v>
+      </c>
+      <c r="C31">
+        <v>3004.09</v>
+      </c>
+      <c r="D31">
+        <f>C30+B31/32</f>
+        <v>3004.0928125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>4181.87</v>
+      </c>
+      <c r="C32">
+        <v>3134.78</v>
+      </c>
+      <c r="D32" s="2">
+        <f>C31+B32/32</f>
+        <v>3134.7734375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>4182.2</v>
+      </c>
+      <c r="C33">
+        <v>3256.77</v>
+      </c>
+      <c r="D33">
+        <f>C32+B33/32-B2/32</f>
+        <v>3256.7737500000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>4182.2700000000004</v>
+      </c>
+      <c r="C34">
+        <v>3370.05</v>
+      </c>
+      <c r="D34">
+        <f>D33+B34/26-B3/26</f>
+        <v>3396.2022115384621</v>
+      </c>
+      <c r="E34">
+        <f>SUM(B3:B34)/32</f>
+        <v>3387.4637499999999</v>
+      </c>
+      <c r="F34">
+        <f>D33+B34/32-B3/32</f>
+        <v>3370.0593750000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>4182.33</v>
+      </c>
+      <c r="C35">
+        <v>3474.62</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:D98" si="1">D34+B35/28-B4/28</f>
+        <v>3515.7093543956048</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:E98" si="2">SUM(B4:B35)/32</f>
+        <v>3500.7512500000003</v>
+      </c>
+      <c r="F35">
+        <f>D34+B35/32-B4/32</f>
+        <v>3500.770961538462</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>4182.3999999999996</v>
+      </c>
+      <c r="C36">
+        <v>3570.49</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>3625.2736401098905</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>3605.3221874999999</v>
+      </c>
+      <c r="F36">
+        <f>D35+B36/32-B5/32</f>
+        <v>3611.5781043956044</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>4182.6000000000004</v>
+      </c>
+      <c r="C37">
+        <v>3657.66</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>3724.890425824176</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>3701.1971875000004</v>
+      </c>
+      <c r="F37">
+        <f>D36+B37/32-B6/32</f>
+        <v>3712.4383276098906</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>4182.8</v>
+      </c>
+      <c r="C38">
+        <v>3736.12</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>3814.5643543956044</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>3788.3681250000004</v>
+      </c>
+      <c r="F38">
+        <f>D37+B38/32-B7/32</f>
+        <v>3803.3551133241763</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>4182</v>
+      </c>
+      <c r="C39">
+        <v>3805.86</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>3894.2714972527469</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>3866.8078125000002</v>
+      </c>
+      <c r="F39">
+        <f>D38+B39/32-B8/32</f>
+        <v>3884.3081043956045</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>4181.67</v>
+      </c>
+      <c r="C40">
+        <v>3866.88</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>3964.0072115384614</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>3936.5412499999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>4181.33</v>
+      </c>
+      <c r="C41">
+        <v>3919.18</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>4023.7786401098897</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>3997.5493750000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>4181.13</v>
+      </c>
+      <c r="C42">
+        <v>3962.77</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>4073.595068681318</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>4049.8431250000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>4181.2700000000004</v>
+      </c>
+      <c r="C43">
+        <v>3997.67</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>4113.4832829670322</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>4093.4368750000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>4181.3999999999996</v>
+      </c>
+      <c r="C44">
+        <v>4023.86</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>4143.4072115384606</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>4128.3431250000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>4181.33</v>
+      </c>
+      <c r="C45">
+        <v>4041.34</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>4163.3857829670324</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>4154.524375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>4180.67</v>
+      </c>
+      <c r="C46">
+        <v>4050.1</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>4173.3929258241751</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>4171.9850000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>4180.53</v>
+      </c>
+      <c r="C47">
+        <v>4050.14</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>4173.4429258241744</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>4180.7368750000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>4179.93</v>
+      </c>
+      <c r="C48">
+        <v>4050.16</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>4173.4664972527453</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>4180.7618750000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>4179.93</v>
+      </c>
+      <c r="C49">
+        <v>4050.18</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>4173.4950686813163</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>4180.7825000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <v>4179.87</v>
+      </c>
+      <c r="C50">
+        <v>4050.21</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>4173.5286401098874</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>4180.805625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>4180</v>
+      </c>
+      <c r="C51">
+        <v>4050.25</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>4173.5643543956021</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>4180.8390624999993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>18</v>
+      </c>
+      <c r="B52">
+        <v>4179.93</v>
+      </c>
+      <c r="C52">
+        <v>4050.28</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>4173.6072115384595</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>4180.8681249999991</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>19</v>
+      </c>
+      <c r="B53">
+        <v>4180.13</v>
+      </c>
+      <c r="C53">
+        <v>4050.32</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>4173.650068681316</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>4180.9118749999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>20</v>
+      </c>
+      <c r="B54">
+        <v>4180.3999999999996</v>
+      </c>
+      <c r="C54">
+        <v>4050.36</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>4173.7000686813162</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>4180.9578124999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>21</v>
+      </c>
+      <c r="B55">
+        <v>4180.6000000000004</v>
+      </c>
+      <c r="C55">
+        <v>4050.4</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>4173.7429258241737</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>4181.0078125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>4180.66</v>
+      </c>
+      <c r="C56">
+        <v>4050.43</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>4173.780782967031</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>4181.0471874999994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>23</v>
+      </c>
+      <c r="B57">
+        <v>4181.3999999999996</v>
+      </c>
+      <c r="C57">
+        <v>4050.47</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>4173.8211401098879</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>4181.1034374999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>24</v>
+      </c>
+      <c r="B58">
+        <v>4181.53</v>
+      </c>
+      <c r="C58">
+        <v>4050.49</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>4173.8497115384589</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>4181.1428124999993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>25</v>
+      </c>
+      <c r="B59">
+        <v>4181.3999999999996</v>
+      </c>
+      <c r="C59">
+        <v>4050.53</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>4173.8879258241732</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>4181.1637499999988</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>26</v>
+      </c>
+      <c r="B60">
+        <v>4181.6000000000004</v>
+      </c>
+      <c r="C60">
+        <v>4050.56</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>4173.9211401098873</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>4181.2034374999994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>27</v>
+      </c>
+      <c r="B61">
+        <v>4181.93</v>
+      </c>
+      <c r="C61">
+        <v>4050.58</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>4173.9497115384584</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>4181.2428124999988</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>28</v>
+      </c>
+      <c r="B62">
+        <v>4182.3999999999996</v>
+      </c>
+      <c r="C62">
+        <v>4050.61</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>4173.9807829670299</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>4181.2824999999993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>29</v>
+      </c>
+      <c r="B63">
+        <v>4182.66</v>
+      </c>
+      <c r="C63">
+        <v>4050.63</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>4174.0089972527439</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>4181.3178124999995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>30</v>
+      </c>
+      <c r="B64">
+        <v>4183</v>
+      </c>
+      <c r="C64">
+        <v>4050.66</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>4174.037568681315</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="2"/>
+        <v>4181.3531249999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>31</v>
+      </c>
+      <c r="B65">
+        <v>4183.13</v>
+      </c>
+      <c r="C65">
+        <v>4050.69</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>4174.0682829670295</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="2"/>
+        <v>4181.3821874999994</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>4183.3999999999996</v>
+      </c>
+      <c r="C66">
+        <v>4050.72</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>4174.1064972527438</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="2"/>
+        <v>4181.4174999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>4182.66</v>
+      </c>
+      <c r="C67">
+        <v>4050.73</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>4174.1157829670292</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="2"/>
+        <v>4181.4278125000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>4183.46</v>
+      </c>
+      <c r="C68">
+        <v>4050.75</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>4174.1464972527438</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="2"/>
+        <v>4181.4609375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>4183.33</v>
+      </c>
+      <c r="C69">
+        <v>4050.77</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>4174.1654258241724</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="2"/>
+        <v>4181.4837500000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>4183.46</v>
+      </c>
+      <c r="C70">
+        <v>4050.82</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>4174.2175686813152</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="2"/>
+        <v>4181.5043750000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>4183.2</v>
+      </c>
+      <c r="C71">
+        <v>4050.86</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>4174.2722115384577</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="2"/>
+        <v>4181.5418750000008</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>4183.2</v>
+      </c>
+      <c r="C72">
+        <v>4050.92</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>4174.338997252743</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="2"/>
+        <v>4181.5896875000008</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>7</v>
+      </c>
+      <c r="B73">
+        <v>4182.46</v>
+      </c>
+      <c r="C73">
+        <v>4050.96</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>4174.3864972527426</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="2"/>
+        <v>4181.625</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>4182.53</v>
+      </c>
+      <c r="C74">
+        <v>4051</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>4174.4314972527427</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="2"/>
+        <v>4181.6687500000007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>4182.26</v>
+      </c>
+      <c r="C75">
+        <v>4051.03</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>4174.4622115384573</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="2"/>
+        <v>4181.6996875000013</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>10</v>
+      </c>
+      <c r="B76">
+        <v>4181.8</v>
+      </c>
+      <c r="C76">
+        <v>4051.05</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>4174.4789972527433</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="2"/>
+        <v>4181.7121875000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>11</v>
+      </c>
+      <c r="B77">
+        <v>4181.2</v>
+      </c>
+      <c r="C77">
+        <v>4051.06</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>4174.4979258241719</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="2"/>
+        <v>4181.7081250000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>12</v>
+      </c>
+      <c r="B78">
+        <v>4181.13</v>
+      </c>
+      <c r="C78">
+        <v>4051.08</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>4174.5193543956011</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="2"/>
+        <v>4181.7224999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>13</v>
+      </c>
+      <c r="B79">
+        <v>4181</v>
+      </c>
+      <c r="C79">
+        <v>4051.11</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>4174.5575686813154</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="2"/>
+        <v>4181.7371875000008</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>14</v>
+      </c>
+      <c r="B80">
+        <v>4181.2</v>
+      </c>
+      <c r="C80">
+        <v>4051.15</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>4174.6029258241724</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="2"/>
+        <v>4181.7768750000005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>15</v>
+      </c>
+      <c r="B81">
+        <v>4180.6000000000004</v>
+      </c>
+      <c r="C81">
+        <v>4051.18</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>4174.6289972527438</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="2"/>
+        <v>4181.7978125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>16</v>
+      </c>
+      <c r="B82">
+        <v>4181</v>
+      </c>
+      <c r="C82">
+        <v>4051.21</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>4174.6647115384576</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="2"/>
+        <v>4181.833125000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>17</v>
+      </c>
+      <c r="B83">
+        <v>4180.0600000000004</v>
+      </c>
+      <c r="C83">
+        <v>4051.21</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>4174.6693543956007</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="2"/>
+        <v>4181.8350000000009</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>18</v>
+      </c>
+      <c r="B84">
+        <v>4180.2</v>
+      </c>
+      <c r="C84">
+        <v>4051.21</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>4174.6718543956013</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="2"/>
+        <v>4181.8434375000006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>19</v>
+      </c>
+      <c r="B85">
+        <v>4180.0600000000004</v>
+      </c>
+      <c r="C85">
+        <v>4051.2</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>4174.6597115384584</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="2"/>
+        <v>4181.8412500000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>20</v>
+      </c>
+      <c r="B86">
+        <v>4179.8599999999997</v>
+      </c>
+      <c r="C86">
+        <v>4051.18</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>4174.63328296703</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="2"/>
+        <v>4181.8243749999992</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>21</v>
+      </c>
+      <c r="B87">
+        <v>4179.26</v>
+      </c>
+      <c r="C87">
+        <v>4051.14</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>4174.5832829670298</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="2"/>
+        <v>4181.7825000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>22</v>
+      </c>
+      <c r="B88">
+        <v>4179.8</v>
+      </c>
+      <c r="C88">
+        <v>4051.09</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>4174.5261401098869</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="2"/>
+        <v>4181.7556249999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>23</v>
+      </c>
+      <c r="B89">
+        <v>4179.93</v>
+      </c>
+      <c r="C89">
+        <v>4051.04</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>4174.468997252744</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="2"/>
+        <v>4181.7096874999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>24</v>
+      </c>
+      <c r="B90">
+        <v>4179.53</v>
+      </c>
+      <c r="C90">
+        <v>4050.98</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>4174.4022115384587</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="2"/>
+        <v>4181.6471874999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>25</v>
+      </c>
+      <c r="B91">
+        <v>4180.13</v>
+      </c>
+      <c r="C91">
+        <v>4050.93</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>4174.349711538458</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="2"/>
+        <v>4181.6075000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>26</v>
+      </c>
+      <c r="B92">
+        <v>4180.46</v>
+      </c>
+      <c r="C92">
+        <v>4050.89</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>4174.2972115384582</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="2"/>
+        <v>4181.5718749999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>27</v>
+      </c>
+      <c r="B93">
+        <v>4180.8</v>
+      </c>
+      <c r="C93">
+        <v>4050.84</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>4174.2400686813153</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="2"/>
+        <v>4181.5365625000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>28</v>
+      </c>
+      <c r="B94">
+        <v>4180.53</v>
+      </c>
+      <c r="C94">
+        <v>4050.77</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>4174.1639972527437</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="2"/>
+        <v>4181.4781249999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>29</v>
+      </c>
+      <c r="B95">
+        <v>4180.46</v>
+      </c>
+      <c r="C95">
+        <v>4050.69</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>4174.0732829670296</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="2"/>
+        <v>4181.4093750000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>30</v>
+      </c>
+      <c r="B96">
+        <v>4180.8599999999997</v>
+      </c>
+      <c r="C96">
+        <v>4050.62</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>4173.9922115384579</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="2"/>
+        <v>4181.3425000000007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>31</v>
+      </c>
+      <c r="B97">
+        <v>4180.93</v>
+      </c>
+      <c r="C97">
+        <v>4050.54</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>4173.9039972527444</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="2"/>
+        <v>4181.2737500000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>4181.46</v>
+      </c>
+      <c r="C98">
+        <v>4050.51</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>4173.8611401098879</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="2"/>
+        <v>4181.2131249999993</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>4181.13</v>
+      </c>
+      <c r="C99">
+        <v>4050.43</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ref="D99:D140" si="3">D98+B99/28-B68/28</f>
+        <v>4173.7779258241735</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ref="E99:E140" si="4">SUM(B68:B99)/32</f>
+        <v>4181.1653125000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>4180.66</v>
+      </c>
+      <c r="C100">
+        <v>4050.35</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="3"/>
+        <v>4173.6825686813163</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="4"/>
+        <v>4181.0778124999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101">
+        <v>4181.53</v>
+      </c>
+      <c r="C101">
+        <v>4050.29</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="3"/>
+        <v>4173.6136401098875</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="4"/>
+        <v>4181.021562500001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102">
+        <v>4181.3900000000003</v>
+      </c>
+      <c r="C102">
+        <v>4050.23</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="3"/>
+        <v>4173.5489972527448</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="4"/>
+        <v>4180.9568749999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <v>4181.46</v>
+      </c>
+      <c r="C103">
+        <v>4050.18</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="3"/>
+        <v>4173.4868543956027</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="4"/>
+        <v>4180.9025000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>6</v>
+      </c>
+      <c r="B104">
+        <v>4181.13</v>
+      </c>
+      <c r="C104">
+        <v>4050.14</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="3"/>
+        <v>4173.439354395603</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="4"/>
+        <v>4180.8378125000008</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>7</v>
+      </c>
+      <c r="B105">
+        <v>4181.0600000000004</v>
+      </c>
+      <c r="C105">
+        <v>4050.09</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="3"/>
+        <v>4173.3868543956023</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="4"/>
+        <v>4180.7940625000019</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>8</v>
+      </c>
+      <c r="B106">
+        <v>4181.26</v>
+      </c>
+      <c r="C106">
+        <v>4050.06</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="3"/>
+        <v>4173.3511401098885</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="4"/>
+        <v>4180.7543750000013</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>9</v>
+      </c>
+      <c r="B107">
+        <v>4180.7299999999996</v>
+      </c>
+      <c r="C107">
+        <v>4050.03</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="3"/>
+        <v>4173.3129258241743</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="4"/>
+        <v>4180.7065625000014</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>10</v>
+      </c>
+      <c r="B108">
+        <v>4180.3900000000003</v>
+      </c>
+      <c r="C108">
+        <v>4050</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="3"/>
+        <v>4173.2839972527463</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="4"/>
+        <v>4180.6625000000004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>11</v>
+      </c>
+      <c r="B109">
+        <v>4180.53</v>
+      </c>
+      <c r="C109">
+        <v>4049.98</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="3"/>
+        <v>4173.2625686813171</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="4"/>
+        <v>4180.6415625000009</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>12</v>
+      </c>
+      <c r="B110">
+        <v>4180.33</v>
+      </c>
+      <c r="C110">
+        <v>4049.96</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="3"/>
+        <v>4173.2386401098884</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="4"/>
+        <v>4180.6165625000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>13</v>
+      </c>
+      <c r="B111">
+        <v>4179.93</v>
+      </c>
+      <c r="C111">
+        <v>4049.92</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="3"/>
+        <v>4173.1932829670313</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="4"/>
+        <v>4180.583125000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>14</v>
+      </c>
+      <c r="B112">
+        <v>4179.79</v>
+      </c>
+      <c r="C112">
+        <v>4049.9</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="3"/>
+        <v>4173.1643543956025</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="4"/>
+        <v>4180.5390625000009</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>15</v>
+      </c>
+      <c r="B113">
+        <v>4179.46</v>
+      </c>
+      <c r="C113">
+        <v>4049.85</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="3"/>
+        <v>4173.1093543956022</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="4"/>
+        <v>4180.5034375000005</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>16</v>
+      </c>
+      <c r="B114">
+        <v>4179.53</v>
+      </c>
+      <c r="C114">
+        <v>4049.83</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="3"/>
+        <v>4173.0904258241735</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="4"/>
+        <v>4180.4575000000004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>17</v>
+      </c>
+      <c r="B115">
+        <v>4180.0600000000004</v>
+      </c>
+      <c r="C115">
+        <v>4049.83</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="3"/>
+        <v>4173.0854258241734</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="4"/>
+        <v>4180.4574999999995</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>18</v>
+      </c>
+      <c r="B116">
+        <v>4179.46</v>
+      </c>
+      <c r="C116">
+        <v>4049.81</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="3"/>
+        <v>4173.0639972527442</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="4"/>
+        <v>4180.4343749999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>19</v>
+      </c>
+      <c r="B117">
+        <v>4179.53</v>
+      </c>
+      <c r="C117">
+        <v>4049.8</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="3"/>
+        <v>4173.0522115384583</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="4"/>
+        <v>4180.4178124999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>20</v>
+      </c>
+      <c r="B118">
+        <v>4179.53</v>
+      </c>
+      <c r="C118">
+        <v>4049.81</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="3"/>
+        <v>4173.0618543956016</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="4"/>
+        <v>4180.4075000000003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>21</v>
+      </c>
+      <c r="B119">
+        <v>4180.13</v>
+      </c>
+      <c r="C119">
+        <v>4049.82</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="3"/>
+        <v>4173.0736401098875</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="4"/>
+        <v>4180.4346874999992</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>22</v>
+      </c>
+      <c r="B120">
+        <v>4180.79</v>
+      </c>
+      <c r="C120">
+        <v>4049.84</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="3"/>
+        <v>4173.1043543956021</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="4"/>
+        <v>4180.4656249999989</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>23</v>
+      </c>
+      <c r="B121">
+        <v>4180.46</v>
+      </c>
+      <c r="C121">
+        <v>4049.87</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="3"/>
+        <v>4173.1375686813162</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="4"/>
+        <v>4180.4821874999989</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>24</v>
+      </c>
+      <c r="B122">
+        <v>4180.8599999999997</v>
+      </c>
+      <c r="C122">
+        <v>4049.9</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="3"/>
+        <v>4173.1636401098876</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="4"/>
+        <v>4180.5237499999994</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>25</v>
+      </c>
+      <c r="B123">
+        <v>4181.13</v>
+      </c>
+      <c r="C123">
+        <v>4049.92</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="3"/>
+        <v>4173.1875686813164</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="4"/>
+        <v>4180.5550000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>26</v>
+      </c>
+      <c r="B124">
+        <v>4180.7299999999996</v>
+      </c>
+      <c r="C124">
+        <v>4049.91</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="3"/>
+        <v>4173.1850686813168</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="4"/>
+        <v>4180.5634375000009</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>27</v>
+      </c>
+      <c r="B125">
+        <v>4180.59</v>
+      </c>
+      <c r="C125">
+        <v>4049.92</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="3"/>
+        <v>4173.1872115384604</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="4"/>
+        <v>4180.5568750000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>28</v>
+      </c>
+      <c r="B126">
+        <v>4181.13</v>
+      </c>
+      <c r="C126">
+        <v>4049.94</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="3"/>
+        <v>4173.2111401098891</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="4"/>
+        <v>4180.5756249999995</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>29</v>
+      </c>
+      <c r="B127">
+        <v>4181.8599999999997</v>
+      </c>
+      <c r="C127">
+        <v>4049.97</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="3"/>
+        <v>4173.2468543956038</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="4"/>
+        <v>4180.6193750000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>30</v>
+      </c>
+      <c r="B128">
+        <v>4182.0600000000004</v>
+      </c>
+      <c r="C128">
+        <v>4050</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="3"/>
+        <v>4173.2872115384607</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="4"/>
+        <v>4180.6568750000006</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>31</v>
+      </c>
+      <c r="B129">
+        <v>4182.3900000000003</v>
+      </c>
+      <c r="C129">
+        <v>4050.03</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="3"/>
+        <v>4173.3204258241749</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="4"/>
+        <v>4180.7025000000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>4182.53</v>
+      </c>
+      <c r="C130">
+        <v>4050.08</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="3"/>
+        <v>4173.3704258241751</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="4"/>
+        <v>4180.7359375000005</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>4181.93</v>
+      </c>
+      <c r="C131">
+        <v>4050.12</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="3"/>
+        <v>4173.4157829670321</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="4"/>
+        <v>4180.7609375000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132">
+        <v>4181.99</v>
+      </c>
+      <c r="C132">
+        <v>4050.13</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="3"/>
+        <v>4173.4322115384603</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="4"/>
+        <v>4180.8024999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>3</v>
+      </c>
+      <c r="B133">
+        <v>4181.8599999999997</v>
+      </c>
+      <c r="C133">
+        <v>4050.14</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="3"/>
+        <v>4173.4489972527463</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="4"/>
+        <v>4180.8128125000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>4</v>
+      </c>
+      <c r="B134">
+        <v>4181.13</v>
+      </c>
+      <c r="C134">
+        <v>4050.13</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="3"/>
+        <v>4173.4372115384604</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="4"/>
+        <v>4180.8046875</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>5</v>
+      </c>
+      <c r="B135">
+        <v>4180.7299999999996</v>
+      </c>
+      <c r="C135">
+        <v>4050.12</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="3"/>
+        <v>4173.4229258241749</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="4"/>
+        <v>4180.7818750000006</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>6</v>
+      </c>
+      <c r="B136">
+        <v>4180.93</v>
+      </c>
+      <c r="C136">
+        <v>4050.12</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="3"/>
+        <v>4173.4182829670326</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="4"/>
+        <v>4180.7756250000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>7</v>
+      </c>
+      <c r="B137">
+        <v>4181.0600000000004</v>
+      </c>
+      <c r="C137">
+        <v>4050.11</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="3"/>
+        <v>4173.4111401098889</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="4"/>
+        <v>4180.7756250000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>8</v>
+      </c>
+      <c r="B138">
+        <v>4180.93</v>
+      </c>
+      <c r="C138">
+        <v>4050.12</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="3"/>
+        <v>4173.4182829670317</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="4"/>
+        <v>4180.7653124999997</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>9</v>
+      </c>
+      <c r="B139">
+        <v>4181.13</v>
+      </c>
+      <c r="C139">
+        <v>4050.14</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="3"/>
+        <v>4173.4447115384601</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="4"/>
+        <v>4180.7778124999995</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <v>10</v>
+      </c>
+      <c r="B140">
+        <v>4181.33</v>
+      </c>
+      <c r="C140">
+        <v>4050.17</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="3"/>
+        <v>4173.473282967032</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="4"/>
+        <v>4180.8071874999996</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>11</v>
+      </c>
+      <c r="B141">
+        <v>4180.93</v>
+      </c>
+      <c r="C141">
+        <v>4050.18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <v>12</v>
+      </c>
+      <c r="B142">
+        <v>4180.66</v>
+      </c>
+      <c r="C142">
+        <v>4050.21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <v>13</v>
+      </c>
+      <c r="B143">
+        <v>4180.33</v>
+      </c>
+      <c r="C143">
+        <v>4050.22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <v>14</v>
+      </c>
+      <c r="B144">
+        <v>4179.8599999999997</v>
+      </c>
+      <c r="C144">
+        <v>4050.24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>15</v>
+      </c>
+      <c r="B145">
+        <v>4179.8599999999997</v>
+      </c>
+      <c r="C145">
+        <v>4050.25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>16</v>
+      </c>
+      <c r="B146">
+        <v>4181.0600000000004</v>
+      </c>
+      <c r="C146">
+        <v>4050.28</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>17</v>
+      </c>
+      <c r="B147">
+        <v>4181.66</v>
+      </c>
+      <c r="C147">
+        <v>4050.35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>18</v>
+      </c>
+      <c r="B148">
+        <v>4181.26</v>
+      </c>
+      <c r="C148">
+        <v>4050.4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>19</v>
+      </c>
+      <c r="B149">
+        <v>4181.99</v>
+      </c>
+      <c r="C149">
+        <v>4050.48</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>20</v>
+      </c>
+      <c r="B150">
+        <v>4182.1899999999996</v>
+      </c>
+      <c r="C150">
+        <v>4050.54</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>21</v>
+      </c>
+      <c r="B151">
+        <v>4182.26</v>
+      </c>
+      <c r="C151">
+        <v>4050.59</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A152">
+        <v>22</v>
+      </c>
+      <c r="B152">
+        <v>4182.0600000000004</v>
+      </c>
+      <c r="C152">
+        <v>4050.64</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A153">
+        <v>23</v>
+      </c>
+      <c r="B153">
+        <v>4181.79</v>
+      </c>
+      <c r="C153">
+        <v>4050.67</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A154">
+        <v>24</v>
+      </c>
+      <c r="B154">
+        <v>4181.59</v>
+      </c>
+      <c r="C154">
+        <v>4050.68</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155">
+        <v>25</v>
+      </c>
+      <c r="B155">
+        <v>4181.53</v>
+      </c>
+      <c r="C155">
+        <v>4050.71</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A156">
+        <v>26</v>
+      </c>
+      <c r="B156">
+        <v>4182.26</v>
+      </c>
+      <c r="C156">
+        <v>4050.76</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A157">
+        <v>27</v>
+      </c>
+      <c r="B157">
+        <v>4182.46</v>
+      </c>
+      <c r="C157">
+        <v>4050.8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A158">
+        <v>28</v>
+      </c>
+      <c r="B158">
+        <v>4182.33</v>
+      </c>
+      <c r="C158">
+        <v>4050.82</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A159">
+        <v>29</v>
+      </c>
+      <c r="B159">
+        <v>4182.7299999999996</v>
+      </c>
+      <c r="C159">
+        <v>4050.84</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A160">
+        <v>30</v>
+      </c>
+      <c r="B160">
+        <v>4182.7299999999996</v>
+      </c>
+      <c r="C160">
+        <v>4050.85</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A161">
+        <v>31</v>
+      </c>
+      <c r="B161">
+        <v>4181.93</v>
+      </c>
+      <c r="C161">
+        <v>4050.83</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A162">
+        <v>0</v>
+      </c>
+      <c r="B162">
+        <v>4181.33</v>
+      </c>
+      <c r="C162">
+        <v>4050.81</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <v>4181.13</v>
+      </c>
+      <c r="C163">
+        <v>4050.78</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A164">
+        <v>2</v>
+      </c>
+      <c r="B164">
+        <v>4180.66</v>
+      </c>
+      <c r="C164">
+        <v>4050.74</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A165">
+        <v>3</v>
+      </c>
+      <c r="B165">
+        <v>4180.46</v>
+      </c>
+      <c r="C165">
+        <v>4050.72</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A166">
+        <v>4</v>
+      </c>
+      <c r="B166">
+        <v>4179.8599999999997</v>
+      </c>
+      <c r="C166">
+        <v>4050.7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A167">
+        <v>5</v>
+      </c>
+      <c r="B167">
+        <v>4179.53</v>
+      </c>
+      <c r="C167">
+        <v>4050.65</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A168">
+        <v>6</v>
+      </c>
+      <c r="B168">
+        <v>4179.99</v>
+      </c>
+      <c r="C168">
+        <v>4050.62</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169">
+        <v>4180.13</v>
+      </c>
+      <c r="C169">
+        <v>4050.59</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A170">
+        <v>8</v>
+      </c>
+      <c r="B170">
+        <v>4179.99</v>
+      </c>
+      <c r="C170">
+        <v>4050.56</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A171">
+        <v>9</v>
+      </c>
+      <c r="B171">
+        <v>4179.7299999999996</v>
+      </c>
+      <c r="C171">
+        <v>4050.51</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A172">
+        <v>10</v>
+      </c>
+      <c r="B172">
+        <v>4179.26</v>
+      </c>
+      <c r="C172">
+        <v>4050.46</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A173">
+        <v>11</v>
+      </c>
+      <c r="B173">
+        <v>4179.13</v>
+      </c>
+      <c r="C173">
+        <v>4050.41</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A174">
+        <v>12</v>
+      </c>
+      <c r="B174">
+        <v>4179.0600000000004</v>
+      </c>
+      <c r="C174">
+        <v>4050.37</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A175">
+        <v>13</v>
+      </c>
+      <c r="B175">
+        <v>4178.8599999999997</v>
+      </c>
+      <c r="C175">
+        <v>4050.34</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A176">
+        <v>14</v>
+      </c>
+      <c r="B176">
+        <v>4179.13</v>
+      </c>
+      <c r="C176">
+        <v>4050.31</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A177">
+        <v>15</v>
+      </c>
+      <c r="B177">
+        <v>4179.13</v>
+      </c>
+      <c r="C177">
+        <v>4050.25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A178">
+        <v>16</v>
+      </c>
+      <c r="B178">
+        <v>4179.8599999999997</v>
+      </c>
+      <c r="C178">
+        <v>4050.2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A179">
+        <v>17</v>
+      </c>
+      <c r="B179">
+        <v>4179.93</v>
+      </c>
+      <c r="C179">
+        <v>4050.16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A180">
+        <v>18</v>
+      </c>
+      <c r="B180">
+        <v>4179.8599999999997</v>
+      </c>
+      <c r="C180">
+        <v>4050.09</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A181">
+        <v>19</v>
+      </c>
+      <c r="B181">
+        <v>4180.3900000000003</v>
+      </c>
+      <c r="C181">
+        <v>4050.03</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A182">
+        <v>20</v>
+      </c>
+      <c r="B182">
+        <v>4180.59</v>
+      </c>
+      <c r="C182">
+        <v>4049.98</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A183">
+        <v>21</v>
+      </c>
+      <c r="B183">
+        <v>4180.53</v>
+      </c>
+      <c r="C183">
+        <v>4049.93</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A184">
+        <v>22</v>
+      </c>
+      <c r="B184">
+        <v>4180.1899999999996</v>
+      </c>
+      <c r="C184">
+        <v>4049.88</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A185">
+        <v>23</v>
+      </c>
+      <c r="B185">
+        <v>4180.66</v>
+      </c>
+      <c r="C185">
+        <v>4049.85</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A186">
+        <v>24</v>
+      </c>
+      <c r="B186">
+        <v>4180.33</v>
+      </c>
+      <c r="C186">
+        <v>4049.82</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A187">
+        <v>25</v>
+      </c>
+      <c r="B187">
+        <v>4180.13</v>
+      </c>
+      <c r="C187">
+        <v>4049.75</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A188">
+        <v>26</v>
+      </c>
+      <c r="B188">
+        <v>4180.46</v>
+      </c>
+      <c r="C188">
+        <v>4049.69</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A189">
+        <v>27</v>
+      </c>
+      <c r="B189">
+        <v>4179.7299999999996</v>
+      </c>
+      <c r="C189">
+        <v>4049.61</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A190">
+        <v>28</v>
+      </c>
+      <c r="B190">
+        <v>4180.0600000000004</v>
+      </c>
+      <c r="C190">
+        <v>4049.52</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A191">
+        <v>29</v>
+      </c>
+      <c r="B191">
+        <v>4180.0600000000004</v>
+      </c>
+      <c r="C191">
+        <v>4049.44</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A192">
+        <v>30</v>
+      </c>
+      <c r="B192">
+        <v>4180.3900000000003</v>
+      </c>
+      <c r="C192">
+        <v>4049.39</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A193">
+        <v>31</v>
+      </c>
+      <c r="B193">
+        <v>4179.93</v>
+      </c>
+      <c r="C193">
+        <v>4049.35</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A194">
+        <v>0</v>
+      </c>
+      <c r="B194">
+        <v>4179.93</v>
+      </c>
+      <c r="C194">
+        <v>4049.31</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A195">
+        <v>1</v>
+      </c>
+      <c r="B195">
+        <v>4179.93</v>
+      </c>
+      <c r="C195">
+        <v>4049.29</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A196">
+        <v>2</v>
+      </c>
+      <c r="B196">
+        <v>4179.59</v>
+      </c>
+      <c r="C196">
+        <v>4049.26</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A197">
+        <v>3</v>
+      </c>
+      <c r="B197">
+        <v>4179.5200000000004</v>
+      </c>
+      <c r="C197">
+        <v>4049.25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A198">
+        <v>4</v>
+      </c>
+      <c r="B198">
+        <v>4179.59</v>
+      </c>
+      <c r="C198">
+        <v>4049.25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A199">
+        <v>5</v>
+      </c>
+      <c r="B199">
+        <v>4179.72</v>
+      </c>
+      <c r="C199">
+        <v>4049.24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A200">
+        <v>6</v>
+      </c>
+      <c r="B200">
+        <v>4179.79</v>
+      </c>
+      <c r="C200">
+        <v>4049.23</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A201">
+        <v>7</v>
+      </c>
+      <c r="B201">
+        <v>4179.46</v>
+      </c>
+      <c r="C201">
+        <v>4049.22</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A202">
+        <v>8</v>
+      </c>
+      <c r="B202">
+        <v>4180.0600000000004</v>
+      </c>
+      <c r="C202">
+        <v>4049.23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A203">
+        <v>9</v>
+      </c>
+      <c r="B203">
+        <v>4179.92</v>
+      </c>
+      <c r="C203">
+        <v>4049.25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A204">
+        <v>10</v>
+      </c>
+      <c r="B204">
+        <v>4180.79</v>
+      </c>
+      <c r="C204">
+        <v>4049.3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A205">
+        <v>11</v>
+      </c>
+      <c r="B205">
+        <v>4180.66</v>
+      </c>
+      <c r="C205">
+        <v>4049.35</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A206">
+        <v>12</v>
+      </c>
+      <c r="B206">
+        <v>4180.46</v>
+      </c>
+      <c r="C206">
+        <v>4049.4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A207">
+        <v>13</v>
+      </c>
+      <c r="B207">
+        <v>4180.26</v>
+      </c>
+      <c r="C207">
+        <v>4049.43</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A208">
+        <v>14</v>
+      </c>
+      <c r="B208">
+        <v>4180.66</v>
+      </c>
+      <c r="C208">
+        <v>4049.48</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A209">
+        <v>15</v>
+      </c>
+      <c r="B209">
+        <v>4180.26</v>
+      </c>
+      <c r="C209">
+        <v>4049.49</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A210">
+        <v>16</v>
+      </c>
+      <c r="B210">
+        <v>4180.59</v>
+      </c>
+      <c r="C210">
+        <v>4049.52</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A211">
+        <v>17</v>
+      </c>
+      <c r="B211">
+        <v>4181.0600000000004</v>
+      </c>
+      <c r="C211">
+        <v>4049.55</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A212">
+        <v>18</v>
+      </c>
+      <c r="B212">
+        <v>4180.72</v>
+      </c>
+      <c r="C212">
+        <v>4049.56</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A213">
+        <v>19</v>
+      </c>
+      <c r="B213">
+        <v>4180.79</v>
+      </c>
+      <c r="C213">
+        <v>4049.57</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A214">
+        <v>20</v>
+      </c>
+      <c r="B214">
+        <v>4181.32</v>
+      </c>
+      <c r="C214">
+        <v>4049.59</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A215">
+        <v>21</v>
+      </c>
+      <c r="B215">
+        <v>4181.26</v>
+      </c>
+      <c r="C215">
+        <v>4049.63</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A216">
+        <v>22</v>
+      </c>
+      <c r="B216">
+        <v>4181.5200000000004</v>
+      </c>
+      <c r="C216">
+        <v>4049.65</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A217">
+        <v>23</v>
+      </c>
+      <c r="B217">
+        <v>4181.32</v>
+      </c>
+      <c r="C217">
+        <v>4049.69</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A218">
+        <v>24</v>
+      </c>
+      <c r="B218">
+        <v>4181.46</v>
+      </c>
+      <c r="C218">
+        <v>4049.73</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A219">
+        <v>25</v>
+      </c>
+      <c r="B219">
+        <v>4181.46</v>
+      </c>
+      <c r="C219">
+        <v>4049.76</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A220">
+        <v>26</v>
+      </c>
+      <c r="B220">
+        <v>4181.0600000000004</v>
+      </c>
+      <c r="C220">
+        <v>4049.8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A221">
+        <v>27</v>
+      </c>
+      <c r="B221">
+        <v>4180.99</v>
+      </c>
+      <c r="C221">
+        <v>4049.83</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A222">
+        <v>28</v>
+      </c>
+      <c r="B222">
+        <v>4181.1899999999996</v>
+      </c>
+      <c r="C222">
+        <v>4049.86</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A223">
+        <v>29</v>
+      </c>
+      <c r="B223">
+        <v>4180.92</v>
+      </c>
+      <c r="C223">
+        <v>4049.88</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A224">
+        <v>30</v>
+      </c>
+      <c r="B224">
+        <v>4181.66</v>
+      </c>
+      <c r="C224">
+        <v>4049.93</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A225">
+        <v>31</v>
+      </c>
+      <c r="B225">
+        <v>4181.5200000000004</v>
+      </c>
+      <c r="C225">
+        <v>4049.98</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A226">
+        <v>0</v>
+      </c>
+      <c r="B226">
+        <v>4181.3900000000003</v>
+      </c>
+      <c r="C226">
+        <v>4050.03</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="B227">
+        <v>4181.99</v>
+      </c>
+      <c r="C227">
+        <v>4050.11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A228">
+        <v>2</v>
+      </c>
+      <c r="B228">
+        <v>4181.72</v>
+      </c>
+      <c r="C228">
+        <v>4050.17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A229">
+        <v>3</v>
+      </c>
+      <c r="B229">
+        <v>4181.0600000000004</v>
+      </c>
+      <c r="C229">
+        <v>4050.22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A230">
+        <v>4</v>
+      </c>
+      <c r="B230">
+        <v>4180.46</v>
+      </c>
+      <c r="C230">
+        <v>4050.24</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A231">
+        <v>5</v>
+      </c>
+      <c r="B231">
+        <v>4180.5200000000004</v>
+      </c>
+      <c r="C231">
+        <v>4050.27</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A232">
+        <v>6</v>
+      </c>
+      <c r="B232">
+        <v>4180.12</v>
+      </c>
+      <c r="C232">
+        <v>4050.29</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A233">
+        <v>7</v>
+      </c>
+      <c r="B233">
+        <v>4180.32</v>
+      </c>
+      <c r="C233">
+        <v>4050.3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A234">
+        <v>8</v>
+      </c>
+      <c r="B234">
+        <v>4180.59</v>
+      </c>
+      <c r="C234">
+        <v>4050.32</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A235">
+        <v>9</v>
+      </c>
+      <c r="B235">
+        <v>4180.72</v>
+      </c>
+      <c r="C235">
+        <v>4050.31</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A236">
+        <v>10</v>
+      </c>
+      <c r="B236">
+        <v>4180.8599999999997</v>
+      </c>
+      <c r="C236">
+        <v>4050.32</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A237">
+        <v>11</v>
+      </c>
+      <c r="B237">
+        <v>4180.46</v>
+      </c>
+      <c r="C237">
+        <v>4050.32</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A238">
+        <v>12</v>
+      </c>
+      <c r="B238">
+        <v>4180.1899999999996</v>
+      </c>
+      <c r="C238">
+        <v>4050.32</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A239">
+        <v>13</v>
+      </c>
+      <c r="B239">
+        <v>4179.8599999999997</v>
+      </c>
+      <c r="C239">
+        <v>4050.29</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A240">
+        <v>14</v>
+      </c>
+      <c r="B240">
+        <v>4179.99</v>
+      </c>
+      <c r="C240">
+        <v>4050.29</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A241">
+        <v>15</v>
+      </c>
+      <c r="B241">
+        <v>4180.12</v>
+      </c>
+      <c r="C241">
+        <v>4050.27</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A242">
+        <v>16</v>
+      </c>
+      <c r="B242">
+        <v>4179.8599999999997</v>
+      </c>
+      <c r="C242">
+        <v>4050.23</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A243">
+        <v>17</v>
+      </c>
+      <c r="B243">
+        <v>4180.26</v>
+      </c>
+      <c r="C243">
+        <v>4050.22</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A244">
+        <v>18</v>
+      </c>
+      <c r="B244">
+        <v>4180.32</v>
+      </c>
+      <c r="C244">
+        <v>4050.2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A245">
+        <v>19</v>
+      </c>
+      <c r="B245">
+        <v>4180.99</v>
+      </c>
+      <c r="C245">
+        <v>4050.19</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A246">
+        <v>20</v>
+      </c>
+      <c r="B246">
+        <v>4180.92</v>
+      </c>
+      <c r="C246">
+        <v>4050.18</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A247">
+        <v>21</v>
+      </c>
+      <c r="B247">
+        <v>4181.0600000000004</v>
+      </c>
+      <c r="C247">
+        <v>4050.17</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A248">
+        <v>22</v>
+      </c>
+      <c r="B248">
+        <v>4180.46</v>
+      </c>
+      <c r="C248">
+        <v>4050.14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A249">
+        <v>23</v>
+      </c>
+      <c r="B249">
+        <v>4179.99</v>
+      </c>
+      <c r="C249">
+        <v>4050.1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A250">
+        <v>24</v>
+      </c>
+      <c r="B250">
+        <v>4179.92</v>
+      </c>
+      <c r="C250">
+        <v>4050.05</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A251">
+        <v>25</v>
+      </c>
+      <c r="B251">
+        <v>4179.99</v>
+      </c>
+      <c r="C251">
+        <v>4050.01</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A252">
+        <v>26</v>
+      </c>
+      <c r="B252">
+        <v>4179.99</v>
+      </c>
+      <c r="C252">
+        <v>4049.98</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A253">
+        <v>27</v>
+      </c>
+      <c r="B253">
+        <v>4180.1899999999996</v>
+      </c>
+      <c r="C253">
+        <v>4049.95</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A254">
+        <v>28</v>
+      </c>
+      <c r="B254">
+        <v>4180.3900000000003</v>
+      </c>
+      <c r="C254">
+        <v>4049.93</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A255">
+        <v>29</v>
+      </c>
+      <c r="B255">
+        <v>4180.12</v>
+      </c>
+      <c r="C255">
+        <v>4049.89</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A256">
+        <v>30</v>
+      </c>
+      <c r="B256">
+        <v>4179.72</v>
+      </c>
+      <c r="C256">
+        <v>4049.83</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A257">
+        <v>31</v>
+      </c>
+      <c r="B257">
+        <v>4179.32</v>
+      </c>
+      <c r="C257">
+        <v>4049.77</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A258">
+        <v>0</v>
+      </c>
+      <c r="B258">
+        <v>4178.72</v>
+      </c>
+      <c r="C258">
+        <v>4049.66</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A259">
+        <v>1</v>
+      </c>
+      <c r="B259">
+        <v>4178.72</v>
+      </c>
+      <c r="C259">
+        <v>4049.57</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A260">
+        <v>2</v>
+      </c>
+      <c r="B260">
+        <v>4178.5200000000004</v>
+      </c>
+      <c r="C260">
+        <v>4049.49</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A261">
+        <v>3</v>
+      </c>
+      <c r="B261">
+        <v>4178.66</v>
+      </c>
+      <c r="C261">
+        <v>4049.44</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A262">
+        <v>4</v>
+      </c>
+      <c r="B262">
+        <v>4178.5200000000004</v>
+      </c>
+      <c r="C262">
+        <v>4049.37</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A263">
+        <v>5</v>
+      </c>
+      <c r="B263">
+        <v>4178.59</v>
+      </c>
+      <c r="C263">
+        <v>4049.32</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A264">
+        <v>6</v>
+      </c>
+      <c r="B264">
+        <v>4178.66</v>
+      </c>
+      <c r="C264">
+        <v>4049.27</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A265">
+        <v>7</v>
+      </c>
+      <c r="B265">
+        <v>4178.72</v>
+      </c>
+      <c r="C265">
+        <v>4049.21</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A266">
+        <v>8</v>
+      </c>
+      <c r="B266">
+        <v>4178.72</v>
+      </c>
+      <c r="C266">
+        <v>4049.15</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A267">
+        <v>9</v>
+      </c>
+      <c r="B267">
+        <v>4178.8599999999997</v>
+      </c>
+      <c r="C267">
+        <v>4049.09</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A268">
+        <v>10</v>
+      </c>
+      <c r="B268">
+        <v>4178.92</v>
+      </c>
+      <c r="C268">
+        <v>4049.04</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A269">
+        <v>11</v>
+      </c>
+      <c r="B269">
+        <v>4178.99</v>
+      </c>
+      <c r="C269">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A270">
+        <v>12</v>
+      </c>
+      <c r="B270">
+        <v>4178.8599999999997</v>
+      </c>
+      <c r="C270">
+        <v>4048.97</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A271">
+        <v>13</v>
+      </c>
+      <c r="B271">
+        <v>4179.1899999999996</v>
+      </c>
+      <c r="C271">
+        <v>4048.95</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A272">
+        <v>14</v>
+      </c>
+      <c r="B272">
+        <v>4179.72</v>
+      </c>
+      <c r="C272">
+        <v>4048.94</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A273">
+        <v>15</v>
+      </c>
+      <c r="B273">
+        <v>4179.66</v>
+      </c>
+      <c r="C273">
+        <v>4048.93</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A274">
+        <v>16</v>
+      </c>
+      <c r="B274">
+        <v>4179.92</v>
+      </c>
+      <c r="C274">
+        <v>4048.92</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A275">
+        <v>17</v>
+      </c>
+      <c r="B275">
+        <v>4179.72</v>
+      </c>
+      <c r="C275">
+        <v>4048.9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A276">
+        <v>18</v>
+      </c>
+      <c r="B276">
+        <v>4179.66</v>
+      </c>
+      <c r="C276">
+        <v>4048.86</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A277">
+        <v>19</v>
+      </c>
+      <c r="B277">
+        <v>4179.8599999999997</v>
+      </c>
+      <c r="C277">
+        <v>4048.82</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A278">
+        <v>20</v>
+      </c>
+      <c r="B278">
+        <v>4179.92</v>
+      </c>
+      <c r="C278">
+        <v>4048.79</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A279">
+        <v>21</v>
+      </c>
+      <c r="B279">
+        <v>4179.79</v>
+      </c>
+      <c r="C279">
+        <v>4048.77</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A280">
+        <v>22</v>
+      </c>
+      <c r="B280">
+        <v>4179.5200000000004</v>
+      </c>
+      <c r="C280">
+        <v>4048.75</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A281">
+        <v>23</v>
+      </c>
+      <c r="B281">
+        <v>4179.79</v>
+      </c>
+      <c r="C281">
+        <v>4048.75</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A282">
+        <v>24</v>
+      </c>
+      <c r="B282">
+        <v>4179.66</v>
+      </c>
+      <c r="C282">
+        <v>4048.74</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A283">
+        <v>25</v>
+      </c>
+      <c r="B283">
+        <v>4179.59</v>
+      </c>
+      <c r="C283">
+        <v>4048.73</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A284">
+        <v>26</v>
+      </c>
+      <c r="B284">
+        <v>4179.46</v>
+      </c>
+      <c r="C284">
+        <v>4048.7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A285">
+        <v>27</v>
+      </c>
+      <c r="B285">
+        <v>4179.8599999999997</v>
+      </c>
+      <c r="C285">
+        <v>4048.69</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A286">
+        <v>28</v>
+      </c>
+      <c r="B286">
+        <v>4179.0600000000004</v>
+      </c>
+      <c r="C286">
+        <v>4048.65</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A287">
+        <v>29</v>
+      </c>
+      <c r="B287">
+        <v>4179.1899999999996</v>
+      </c>
+      <c r="C287">
+        <v>4048.64</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A288">
+        <v>30</v>
+      </c>
+      <c r="B288">
+        <v>4179.66</v>
+      </c>
+      <c r="C288">
+        <v>4048.65</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A289">
+        <v>31</v>
+      </c>
+      <c r="B289">
+        <v>4179.79</v>
+      </c>
+      <c r="C289">
+        <v>4048.68</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A290">
+        <v>0</v>
+      </c>
+      <c r="B290">
+        <v>4179.92</v>
+      </c>
+      <c r="C290">
+        <v>4048.72</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A291">
+        <v>1</v>
+      </c>
+      <c r="B291">
+        <v>4180.26</v>
+      </c>
+      <c r="C291">
+        <v>4048.77</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A292">
+        <v>2</v>
+      </c>
+      <c r="B292">
+        <v>4180.66</v>
+      </c>
+      <c r="C292">
+        <v>4048.83</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A293">
+        <v>3</v>
+      </c>
+      <c r="B293">
+        <v>4180.92</v>
+      </c>
+      <c r="C293">
+        <v>4048.91</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A294">
+        <v>4</v>
+      </c>
+      <c r="B294">
+        <v>4181.79</v>
+      </c>
+      <c r="C294">
+        <v>4049.01</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A295">
+        <v>5</v>
+      </c>
+      <c r="B295">
+        <v>4181.92</v>
+      </c>
+      <c r="C295">
+        <v>4049.11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A296">
+        <v>6</v>
+      </c>
+      <c r="B296">
+        <v>4181.59</v>
+      </c>
+      <c r="C296">
+        <v>4049.2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A297">
+        <v>7</v>
+      </c>
+      <c r="B297">
+        <v>4181.79</v>
+      </c>
+      <c r="C297">
+        <v>4049.3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A298">
+        <v>8</v>
+      </c>
+      <c r="B298">
+        <v>4181.99</v>
+      </c>
+      <c r="C298">
+        <v>4049.39</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A299">
+        <v>9</v>
+      </c>
+      <c r="B299">
+        <v>4181.99</v>
+      </c>
+      <c r="C299">
+        <v>4049.49</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A300">
+        <v>10</v>
+      </c>
+      <c r="B300">
+        <v>4181.3900000000003</v>
+      </c>
+      <c r="C300">
+        <v>4049.56</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A301">
+        <v>11</v>
+      </c>
+      <c r="B301">
+        <v>4182.32</v>
+      </c>
+      <c r="C301">
+        <v>4049.67</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A302">
+        <v>12</v>
+      </c>
+      <c r="B302">
+        <v>4183.0600000000004</v>
+      </c>
+      <c r="C302">
+        <v>4049.79</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A303">
+        <v>13</v>
+      </c>
+      <c r="B303">
+        <v>4182.99</v>
+      </c>
+      <c r="C303">
+        <v>4049.9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A304">
+        <v>14</v>
+      </c>
+      <c r="B304">
+        <v>4182.6499999999996</v>
+      </c>
+      <c r="C304">
+        <v>4049.99</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A305">
+        <v>15</v>
+      </c>
+      <c r="B305">
+        <v>4182.25</v>
+      </c>
+      <c r="C305">
+        <v>4050.06</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A306">
+        <v>16</v>
+      </c>
+      <c r="B306">
+        <v>4182.1899999999996</v>
+      </c>
+      <c r="C306">
+        <v>4050.14</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A307">
+        <v>17</v>
+      </c>
+      <c r="B307">
+        <v>4181.8500000000004</v>
+      </c>
+      <c r="C307">
+        <v>4050.21</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A308">
+        <v>18</v>
+      </c>
+      <c r="B308">
+        <v>4181.99</v>
+      </c>
+      <c r="C308">
+        <v>4050.27</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A309">
+        <v>19</v>
+      </c>
+      <c r="B309">
+        <v>4181.12</v>
+      </c>
+      <c r="C309">
+        <v>4050.31</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A310">
+        <v>20</v>
+      </c>
+      <c r="B310">
+        <v>4181.32</v>
+      </c>
+      <c r="C310">
+        <v>4050.36</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A311">
+        <v>21</v>
+      </c>
+      <c r="B311">
+        <v>4181.6499999999996</v>
+      </c>
+      <c r="C311">
+        <v>4050.43</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A312">
+        <v>22</v>
+      </c>
+      <c r="B312">
+        <v>4181.59</v>
+      </c>
+      <c r="C312">
+        <v>4050.48</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A313">
+        <v>23</v>
+      </c>
+      <c r="B313">
+        <v>4181.45</v>
+      </c>
+      <c r="C313">
+        <v>4050.54</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A314">
+        <v>24</v>
+      </c>
+      <c r="B314">
+        <v>4180.99</v>
+      </c>
+      <c r="C314">
+        <v>4050.58</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A315">
+        <v>25</v>
+      </c>
+      <c r="B315">
+        <v>4181.25</v>
+      </c>
+      <c r="C315">
+        <v>4050.64</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A316">
+        <v>26</v>
+      </c>
+      <c r="B316">
+        <v>4180.79</v>
+      </c>
+      <c r="C316">
+        <v>4050.67</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A317">
+        <v>27</v>
+      </c>
+      <c r="B317">
+        <v>4180.12</v>
+      </c>
+      <c r="C317">
+        <v>4050.7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A318">
+        <v>28</v>
+      </c>
+      <c r="B318">
+        <v>4179.59</v>
+      </c>
+      <c r="C318">
+        <v>4050.71</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A319">
+        <v>29</v>
+      </c>
+      <c r="B319">
+        <v>4179.6499999999996</v>
+      </c>
+      <c r="C319">
+        <v>4050.71</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A320">
+        <v>30</v>
+      </c>
+      <c r="B320">
+        <v>4180.25</v>
+      </c>
+      <c r="C320">
+        <v>4050.73</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A321">
+        <v>31</v>
+      </c>
+      <c r="B321">
+        <v>4180.3900000000003</v>
+      </c>
+      <c r="C321">
+        <v>4050.74</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A322">
+        <v>0</v>
+      </c>
+      <c r="B322">
+        <v>4180.3900000000003</v>
+      </c>
+      <c r="C322">
+        <v>4050.75</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A323">
+        <v>1</v>
+      </c>
+      <c r="B323">
+        <v>4180.45</v>
+      </c>
+      <c r="C323">
+        <v>4050.74</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A324">
+        <v>2</v>
+      </c>
+      <c r="B324">
+        <v>4180.3900000000003</v>
+      </c>
+      <c r="C324">
+        <v>4050.72</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A325">
+        <v>3</v>
+      </c>
+      <c r="B325">
+        <v>4179.92</v>
+      </c>
+      <c r="C325">
+        <v>4050.66</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A326">
+        <v>4</v>
+      </c>
+      <c r="B326">
+        <v>4179.32</v>
+      </c>
+      <c r="C326">
+        <v>4050.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>